--- a/primer.xlsx
+++ b/primer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\хуитаповсст\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D19467-840A-42FD-A755-62E7290B6A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF06DDA5-CDC1-4F45-9F2D-94546CA2B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,6 @@
     <sheet name="касс. план на весь пер." sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="3 этап" sheetId="1" state="hidden" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'3 этап'!$3:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Форма 8'!$4:$7</definedName>
@@ -1147,20 +1144,22 @@
     <xf numFmtId="49" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1182,6 +1181,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1253,9 +1253,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1272,30 +1269,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="касс план в соотвествии с финан"/>
-      <sheetName val="форма 8"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="16">
-          <cell r="C16">
-            <v>0</v>
-          </cell>
-          <cell r="F16">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1564,7 +1537,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,73 +1621,73 @@
       <c r="A4" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="77" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="79" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="80"/>
-      <c r="H5" s="79" t="s">
+      <c r="G5" s="78"/>
+      <c r="H5" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="79" t="s">
+      <c r="I5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="79" t="s">
+      <c r="K5" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="79" t="s">
+      <c r="L5" s="77" t="s">
         <v>47</v>
       </c>
       <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="61" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
       <c r="M6" s="62"/>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2381,14 +2354,14 @@
       <c r="M23" s="68"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J25" s="81"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
     </row>
     <row r="26" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="78"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
       <c r="J26" s="82"/>
       <c r="K26" s="83"/>
       <c r="L26" s="83"/>
@@ -2399,14 +2372,14 @@
     </row>
     <row r="28" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="77"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="80"/>
       <c r="L28"/>
     </row>
     <row r="30" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D32"/>
@@ -2422,6 +2395,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="C26:E26"/>
@@ -2436,11 +2414,6 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2473,13 +2446,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
     </row>
     <row r="2" spans="1:5" s="28" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -2511,7 +2484,7 @@
       <c r="D3" s="47">
         <v>0</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="76" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2528,7 +2501,7 @@
       <c r="D4" s="47">
         <v>0</v>
       </c>
-      <c r="E4" s="113" t="s">
+      <c r="E4" s="76" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2545,7 +2518,7 @@
       <c r="D5" s="47">
         <v>0</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="76" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2562,7 +2535,7 @@
       <c r="D6" s="47">
         <v>0</v>
       </c>
-      <c r="E6" s="113" t="s">
+      <c r="E6" s="76" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2579,7 +2552,7 @@
       <c r="D7" s="47">
         <v>0</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="76" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2596,7 +2569,7 @@
       <c r="D8" s="47">
         <v>0</v>
       </c>
-      <c r="E8" s="113" t="s">
+      <c r="E8" s="76" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2613,7 +2586,7 @@
       <c r="D9" s="47">
         <v>0</v>
       </c>
-      <c r="E9" s="113" t="s">
+      <c r="E9" s="76" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2630,7 +2603,7 @@
       <c r="D10" s="47">
         <v>0</v>
       </c>
-      <c r="E10" s="113" t="s">
+      <c r="E10" s="76" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2645,23 +2618,23 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
       <c r="E17" s="29" t="s">
         <v>74</v>
       </c>
@@ -2670,11 +2643,11 @@
       <c r="A18" s="29">
         <v>1</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="29">
         <v>1</v>
       </c>
@@ -2683,11 +2656,11 @@
       <c r="A19" s="29">
         <v>2</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
       <c r="E19" s="29">
         <v>2</v>
       </c>
@@ -2696,11 +2669,11 @@
       <c r="A20" s="29">
         <v>3</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
       <c r="E20" s="29">
         <v>3</v>
       </c>
@@ -2709,11 +2682,11 @@
       <c r="A21" s="29">
         <v>4</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="29">
         <v>4</v>
       </c>
@@ -2722,11 +2695,11 @@
       <c r="A22" s="29">
         <v>5</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
       <c r="E22" s="29">
         <v>5</v>
       </c>
@@ -2735,11 +2708,11 @@
       <c r="A23" s="29">
         <v>6</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="92"/>
       <c r="E23" s="29">
         <v>6</v>
       </c>
@@ -2748,11 +2721,11 @@
       <c r="A24" s="29">
         <v>7</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="29">
         <v>7</v>
       </c>
@@ -2761,11 +2734,11 @@
       <c r="A25" s="29">
         <v>8</v>
       </c>
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="29">
         <v>8</v>
       </c>
@@ -2774,11 +2747,11 @@
       <c r="A26" s="29">
         <v>9</v>
       </c>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="29">
         <v>9</v>
       </c>
@@ -2829,13 +2802,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
     </row>
     <row r="2" spans="1:5" s="28" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -2866,7 +2839,6 @@
         <v>7196087.5099999998</v>
       </c>
       <c r="D3" s="47">
-        <f>'[1]касс план в соотвествии с финан'!C16</f>
         <v>0</v>
       </c>
       <c r="E3" s="48"/>
@@ -2883,7 +2855,6 @@
         <v>12774765.100000001</v>
       </c>
       <c r="D4" s="45">
-        <f>'[1]касс план в соотвествии с финан'!F16</f>
         <v>0</v>
       </c>
       <c r="E4" s="29"/>
@@ -3021,23 +2992,23 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="29" t="s">
         <v>74</v>
       </c>
@@ -3046,11 +3017,11 @@
       <c r="A22" s="29">
         <v>1</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
       <c r="E22" s="29">
         <v>1</v>
       </c>
@@ -3059,11 +3030,11 @@
       <c r="A23" s="29">
         <v>2</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="92"/>
       <c r="E23" s="29">
         <v>2</v>
       </c>
@@ -3072,11 +3043,11 @@
       <c r="A24" s="29">
         <v>3</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="29">
         <v>3</v>
       </c>
@@ -3085,11 +3056,11 @@
       <c r="A25" s="29">
         <v>4</v>
       </c>
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="29">
         <v>4</v>
       </c>
@@ -3098,11 +3069,11 @@
       <c r="A26" s="29">
         <v>5</v>
       </c>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="29">
         <v>5</v>
       </c>
@@ -3111,11 +3082,11 @@
       <c r="A27" s="29">
         <v>6</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
       <c r="E27" s="29">
         <v>6</v>
       </c>
@@ -3124,11 +3095,11 @@
       <c r="A28" s="29">
         <v>7</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
       <c r="E28" s="29">
         <v>7</v>
       </c>
@@ -3137,11 +3108,11 @@
       <c r="A29" s="29">
         <v>8</v>
       </c>
-      <c r="B29" s="89" t="s">
+      <c r="B29" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
       <c r="E29" s="29">
         <v>8</v>
       </c>
@@ -3150,11 +3121,11 @@
       <c r="A30" s="29">
         <v>9</v>
       </c>
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="90"/>
-      <c r="D30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="92"/>
       <c r="E30" s="29">
         <v>9</v>
       </c>
@@ -3213,91 +3184,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="105" t="s">
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="105" t="s">
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="97" t="s">
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="98" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
-      <c r="B6" s="102"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="8" t="s">
         <v>88</v>
       </c>
@@ -3334,7 +3305,7 @@
       <c r="N6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="O6" s="98"/>
+      <c r="O6" s="99"/>
     </row>
     <row r="7" spans="1:15" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
@@ -3813,20 +3784,20 @@
       <c r="L1" s="85"/>
     </row>
     <row r="2" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
       <c r="M2" s="18"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -3837,26 +3808,26 @@
       <c r="T2" s="10"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -3867,32 +3838,32 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="112" t="s">
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="112" t="s">
+      <c r="F4" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="112" t="s">
+      <c r="G4" s="110"/>
+      <c r="H4" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="112" t="s">
+      <c r="I4" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="112" t="s">
+      <c r="J4" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="112" t="s">
+      <c r="K4" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="112" t="s">
+      <c r="L4" s="113" t="s">
         <v>47</v>
       </c>
       <c r="M4" s="1"/>
@@ -3905,22 +3876,22 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="15" t="s">
         <v>40</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -4639,18 +4610,18 @@
       <c r="T21" s="3"/>
     </row>
     <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J23" s="81" t="s">
+      <c r="J23" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
     </row>
     <row r="24" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
       <c r="J24" s="82" t="s">
         <v>50</v>
       </c>
@@ -4672,10 +4643,10 @@
         <v>58</v>
       </c>
       <c r="D26"/>
-      <c r="J26" s="76" t="s">
+      <c r="J26" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="K26" s="77"/>
+      <c r="K26" s="80"/>
       <c r="L26"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -4685,7 +4656,7 @@
     </row>
     <row r="28" spans="1:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="81" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="83"/>
@@ -4710,11 +4681,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J26:K26"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A2:L2"/>
@@ -4729,6 +4695,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J26:K26"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
